--- a/2020 Census File.xlsx
+++ b/2020 Census File.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klein337\Desktop\R users meeting notes\Agendas and Notes\Nov Workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klein337\Documents\GitHub\R Brown Bag Session\R-Brown-Bag-Session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D7DA78-305D-410B-839C-4A14079F1927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621DFDE2-13BC-407C-880D-DC0DACCB92D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8355" yWindow="0" windowWidth="20055" windowHeight="15540" xr2:uid="{CEEB2BC9-F10F-47FC-BBD4-C21F3A36AAA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEEB2BC9-F10F-47FC-BBD4-C21F3A36AAA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Table E" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Table E'!$A$1:$I$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Table E'!$A$1:$J$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
   <si>
     <t>Area</t>
   </si>
@@ -219,6 +219,21 @@
   </si>
   <si>
     <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Midwest</t>
+  </si>
+  <si>
+    <t>South</t>
   </si>
 </sst>
 </file>
@@ -260,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -280,6 +295,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,311 +613,340 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="13.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="10" customWidth="1"/>
-    <col min="8" max="9" width="11.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="2" width="23.42578125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="13.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="10" customWidth="1"/>
+    <col min="9" max="10" width="11.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="5">
         <v>5024279</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D2" s="5">
         <v>4779736</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>244543</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="7">
         <v>24</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H2" s="7">
         <v>23</v>
       </c>
-      <c r="H2" s="8">
+      <c r="I2" s="8">
         <v>24</v>
       </c>
-      <c r="I2" s="8">
+      <c r="J2" s="8">
         <v>27</v>
       </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="5">
         <v>733391</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>710231</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>23160</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <v>3.3</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="7">
         <v>48</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H3" s="7">
         <v>47</v>
       </c>
-      <c r="H3" s="8">
+      <c r="I3" s="8">
         <v>45</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J3" s="8">
         <v>36</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="5">
         <v>7151502</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>6392017</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>759485</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <v>11.9</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4" s="7">
         <v>14</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H4" s="7">
         <v>16</v>
       </c>
-      <c r="H4" s="8">
+      <c r="I4" s="8">
         <v>8</v>
       </c>
-      <c r="I4" s="8">
+      <c r="J4" s="8">
         <v>9</v>
       </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="5">
         <v>3011524</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>2915918</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>95606</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <v>3.3</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5" s="7">
         <v>33</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
         <v>32</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <v>34</v>
       </c>
-      <c r="I5" s="8">
+      <c r="J5" s="8">
         <v>35</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="5">
         <v>39538223</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>37253956</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>2284267</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <v>6.1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
         <v>3</v>
       </c>
-      <c r="I6" s="8">
+      <c r="J6" s="8">
         <v>24</v>
       </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="5">
         <v>5773714</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="5">
         <v>5029196</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>744518</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <v>14.8</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="7">
         <v>21</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <v>22</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="8">
         <v>9</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J7" s="8">
         <v>6</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="5">
         <v>3605944</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="5">
         <v>3574097</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>31847</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <v>0.9</v>
-      </c>
-      <c r="F8" s="7">
-        <v>29</v>
       </c>
       <c r="G8" s="7">
         <v>29</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
+        <v>29</v>
+      </c>
+      <c r="I8" s="8">
         <v>44</v>
       </c>
-      <c r="I8" s="8">
+      <c r="J8" s="8">
         <v>47</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="5">
         <v>989948</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="5">
         <v>897934</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>92014</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <v>10.199999999999999</v>
-      </c>
-      <c r="F9" s="7">
-        <v>45</v>
       </c>
       <c r="G9" s="7">
         <v>45</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
+        <v>45</v>
+      </c>
+      <c r="I9" s="8">
         <v>37</v>
       </c>
-      <c r="I9" s="8">
+      <c r="J9" s="8">
         <v>13</v>
       </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="5">
         <v>689545</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D10" s="5">
         <v>601723</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>87822</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <v>14.6</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>18</v>
@@ -912,1269 +957,1398 @@
       <c r="I10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="5">
         <v>21538187</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D11" s="5">
         <v>18801310</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="5">
         <v>2736877</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <v>14.6</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11" s="7">
         <v>3</v>
       </c>
-      <c r="G11" s="7">
+      <c r="H11" s="7">
         <v>4</v>
       </c>
-      <c r="H11" s="8">
+      <c r="I11" s="8">
         <v>2</v>
       </c>
-      <c r="I11" s="8">
+      <c r="J11" s="8">
         <v>8</v>
       </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="5">
         <v>10711908</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D12" s="5">
         <v>9687653</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>1024255</v>
       </c>
-      <c r="E12" s="6">
+      <c r="F12" s="6">
         <v>10.6</v>
       </c>
-      <c r="F12" s="7">
+      <c r="G12" s="7">
         <v>8</v>
       </c>
-      <c r="G12" s="7">
+      <c r="H12" s="7">
         <v>9</v>
       </c>
-      <c r="H12" s="8">
+      <c r="I12" s="8">
         <v>4</v>
       </c>
-      <c r="I12" s="8">
+      <c r="J12" s="8">
         <v>12</v>
       </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="5">
         <v>1455271</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D13" s="5">
         <v>1360301</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="5">
         <v>94970</v>
       </c>
-      <c r="E13" s="6">
+      <c r="F13" s="6">
         <v>7</v>
-      </c>
-      <c r="F13" s="7">
-        <v>40</v>
       </c>
       <c r="G13" s="7">
         <v>40</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
+        <v>40</v>
+      </c>
+      <c r="I13" s="8">
         <v>35</v>
       </c>
-      <c r="I13" s="8">
+      <c r="J13" s="8">
         <v>23</v>
       </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="5">
         <v>1839106</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D14" s="5">
         <v>1567582</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="5">
         <v>271524</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F14" s="6">
         <v>17.3</v>
       </c>
-      <c r="F14" s="7">
+      <c r="G14" s="7">
         <v>38</v>
       </c>
-      <c r="G14" s="7">
+      <c r="H14" s="7">
         <v>39</v>
       </c>
-      <c r="H14" s="8">
+      <c r="I14" s="8">
         <v>22</v>
       </c>
-      <c r="I14" s="8">
+      <c r="J14" s="8">
         <v>2</v>
       </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="5">
         <v>12812508</v>
       </c>
-      <c r="C15" s="5">
+      <c r="D15" s="5">
         <v>12830632</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E15" s="5">
         <v>-18124</v>
       </c>
-      <c r="E15" s="6">
+      <c r="F15" s="6">
         <v>-0.1</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15" s="7">
         <v>6</v>
       </c>
-      <c r="G15" s="7">
+      <c r="H15" s="7">
         <v>5</v>
       </c>
-      <c r="H15" s="8">
+      <c r="I15" s="8">
         <v>49</v>
       </c>
-      <c r="I15" s="8">
+      <c r="J15" s="8">
         <v>48</v>
       </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="5">
         <v>6785528</v>
       </c>
-      <c r="C16" s="5">
+      <c r="D16" s="5">
         <v>6483802</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E16" s="5">
         <v>301726</v>
       </c>
-      <c r="E16" s="6">
+      <c r="F16" s="6">
         <v>4.7</v>
       </c>
-      <c r="F16" s="7">
+      <c r="G16" s="7">
         <v>17</v>
       </c>
-      <c r="G16" s="7">
+      <c r="H16" s="7">
         <v>15</v>
       </c>
-      <c r="H16" s="8">
+      <c r="I16" s="8">
         <v>20</v>
       </c>
-      <c r="I16" s="8">
+      <c r="J16" s="8">
         <v>29</v>
       </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="5">
         <v>3190369</v>
       </c>
-      <c r="C17" s="5">
+      <c r="D17" s="5">
         <v>3046355</v>
       </c>
-      <c r="D17" s="5">
+      <c r="E17" s="5">
         <v>144014</v>
       </c>
-      <c r="E17" s="6">
+      <c r="F17" s="6">
         <v>4.7</v>
       </c>
-      <c r="F17" s="7">
+      <c r="G17" s="7">
         <v>31</v>
       </c>
-      <c r="G17" s="7">
+      <c r="H17" s="7">
         <v>30</v>
       </c>
-      <c r="H17" s="8">
+      <c r="I17" s="8">
         <v>30</v>
       </c>
-      <c r="I17" s="8">
+      <c r="J17" s="8">
         <v>28</v>
       </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="5">
         <v>2937880</v>
       </c>
-      <c r="C18" s="5">
+      <c r="D18" s="5">
         <v>2853118</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="5">
         <v>84762</v>
       </c>
-      <c r="E18" s="6">
+      <c r="F18" s="6">
         <v>3</v>
       </c>
-      <c r="F18" s="7">
+      <c r="G18" s="7">
         <v>35</v>
       </c>
-      <c r="G18" s="7">
+      <c r="H18" s="7">
         <v>33</v>
       </c>
-      <c r="H18" s="8">
+      <c r="I18" s="8">
         <v>38</v>
       </c>
-      <c r="I18" s="8">
+      <c r="J18" s="8">
         <v>37</v>
       </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="5">
         <v>4505836</v>
       </c>
-      <c r="C19" s="5">
+      <c r="D19" s="5">
         <v>4339367</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="5">
         <v>166469</v>
       </c>
-      <c r="E19" s="6">
+      <c r="F19" s="6">
         <v>3.8</v>
-      </c>
-      <c r="F19" s="7">
-        <v>26</v>
       </c>
       <c r="G19" s="7">
         <v>26</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
+        <v>26</v>
+      </c>
+      <c r="I19" s="8">
         <v>28</v>
       </c>
-      <c r="I19" s="8">
+      <c r="J19" s="8">
         <v>33</v>
       </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="5">
         <v>4657757</v>
       </c>
-      <c r="C20" s="5">
+      <c r="D20" s="5">
         <v>4533372</v>
       </c>
-      <c r="D20" s="5">
+      <c r="E20" s="5">
         <v>124385</v>
       </c>
-      <c r="E20" s="6">
+      <c r="F20" s="6">
         <v>2.7</v>
-      </c>
-      <c r="F20" s="7">
-        <v>25</v>
       </c>
       <c r="G20" s="7">
         <v>25</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
+        <v>25</v>
+      </c>
+      <c r="I20" s="8">
         <v>32</v>
       </c>
-      <c r="I20" s="8">
+      <c r="J20" s="8">
         <v>41</v>
       </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="5">
         <v>1362359</v>
       </c>
-      <c r="C21" s="5">
+      <c r="D21" s="5">
         <v>1328361</v>
       </c>
-      <c r="D21" s="5">
+      <c r="E21" s="5">
         <v>33998</v>
       </c>
-      <c r="E21" s="6">
+      <c r="F21" s="6">
         <v>2.6</v>
       </c>
-      <c r="F21" s="7">
+      <c r="G21" s="7">
         <v>42</v>
       </c>
-      <c r="G21" s="7">
+      <c r="H21" s="7">
         <v>41</v>
       </c>
-      <c r="H21" s="8">
+      <c r="I21" s="8">
         <v>43</v>
       </c>
-      <c r="I21" s="8">
+      <c r="J21" s="8">
         <v>42</v>
       </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="5">
         <v>6177224</v>
       </c>
-      <c r="C22" s="5">
+      <c r="D22" s="5">
         <v>5773552</v>
       </c>
-      <c r="D22" s="5">
+      <c r="E22" s="5">
         <v>403672</v>
       </c>
-      <c r="E22" s="6">
+      <c r="F22" s="6">
         <v>7</v>
       </c>
-      <c r="F22" s="7">
+      <c r="G22" s="7">
         <v>18</v>
       </c>
-      <c r="G22" s="7">
+      <c r="H22" s="7">
         <v>19</v>
       </c>
-      <c r="H22" s="8">
+      <c r="I22" s="8">
         <v>18</v>
       </c>
-      <c r="I22" s="8">
+      <c r="J22" s="8">
         <v>22</v>
       </c>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="5">
         <v>7029917</v>
       </c>
-      <c r="C23" s="5">
+      <c r="D23" s="5">
         <v>6547629</v>
       </c>
-      <c r="D23" s="5">
+      <c r="E23" s="5">
         <v>482288</v>
       </c>
-      <c r="E23" s="6">
+      <c r="F23" s="6">
         <v>7.4</v>
       </c>
-      <c r="F23" s="7">
+      <c r="G23" s="7">
         <v>15</v>
       </c>
-      <c r="G23" s="7">
+      <c r="H23" s="7">
         <v>14</v>
       </c>
-      <c r="H23" s="8">
+      <c r="I23" s="8">
         <v>15</v>
       </c>
-      <c r="I23" s="8">
+      <c r="J23" s="8">
         <v>21</v>
       </c>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="5">
         <v>10077331</v>
       </c>
-      <c r="C24" s="5">
+      <c r="D24" s="5">
         <v>9883640</v>
       </c>
-      <c r="D24" s="5">
+      <c r="E24" s="5">
         <v>193691</v>
       </c>
-      <c r="E24" s="6">
+      <c r="F24" s="6">
         <v>2</v>
       </c>
-      <c r="F24" s="7">
+      <c r="G24" s="7">
         <v>10</v>
       </c>
-      <c r="G24" s="7">
+      <c r="H24" s="7">
         <v>8</v>
       </c>
-      <c r="H24" s="8">
+      <c r="I24" s="8">
         <v>27</v>
       </c>
-      <c r="I24" s="8">
+      <c r="J24" s="8">
         <v>46</v>
       </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="5">
         <v>5706494</v>
       </c>
-      <c r="C25" s="5">
+      <c r="D25" s="5">
         <v>5303925</v>
       </c>
-      <c r="D25" s="5">
+      <c r="E25" s="5">
         <v>402569</v>
       </c>
-      <c r="E25" s="6">
+      <c r="F25" s="6">
         <v>7.6</v>
       </c>
-      <c r="F25" s="7">
+      <c r="G25" s="7">
         <v>22</v>
       </c>
-      <c r="G25" s="7">
+      <c r="H25" s="7">
         <v>21</v>
-      </c>
-      <c r="H25" s="8">
-        <v>19</v>
       </c>
       <c r="I25" s="8">
         <v>19</v>
       </c>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="8">
+        <v>19</v>
+      </c>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="5">
         <v>2961279</v>
       </c>
-      <c r="C26" s="5">
+      <c r="D26" s="5">
         <v>2967297</v>
       </c>
-      <c r="D26" s="5">
+      <c r="E26" s="5">
         <v>-6018</v>
       </c>
-      <c r="E26" s="6">
+      <c r="F26" s="6">
         <v>-0.2</v>
       </c>
-      <c r="F26" s="7">
+      <c r="G26" s="7">
         <v>34</v>
       </c>
-      <c r="G26" s="7">
+      <c r="H26" s="7">
         <v>31</v>
       </c>
-      <c r="H26" s="8">
+      <c r="I26" s="8">
         <v>48</v>
       </c>
-      <c r="I26" s="8">
+      <c r="J26" s="8">
         <v>49</v>
       </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="5">
         <v>6154913</v>
       </c>
-      <c r="C27" s="5">
+      <c r="D27" s="5">
         <v>5988927</v>
       </c>
-      <c r="D27" s="5">
+      <c r="E27" s="5">
         <v>165986</v>
       </c>
-      <c r="E27" s="6">
+      <c r="F27" s="6">
         <v>2.8</v>
       </c>
-      <c r="F27" s="7">
+      <c r="G27" s="7">
         <v>19</v>
       </c>
-      <c r="G27" s="7">
+      <c r="H27" s="7">
         <v>18</v>
       </c>
-      <c r="H27" s="8">
+      <c r="I27" s="8">
         <v>29</v>
       </c>
-      <c r="I27" s="8">
+      <c r="J27" s="8">
         <v>39</v>
       </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="5">
         <v>1084225</v>
       </c>
-      <c r="C28" s="5">
+      <c r="D28" s="5">
         <v>989415</v>
       </c>
-      <c r="D28" s="5">
+      <c r="E28" s="5">
         <v>94810</v>
       </c>
-      <c r="E28" s="6">
+      <c r="F28" s="6">
         <v>9.6</v>
-      </c>
-      <c r="F28" s="7">
-        <v>44</v>
       </c>
       <c r="G28" s="7">
         <v>44</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="7">
+        <v>44</v>
+      </c>
+      <c r="I28" s="8">
         <v>36</v>
       </c>
-      <c r="I28" s="8">
+      <c r="J28" s="8">
         <v>14</v>
       </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="5">
         <v>1961504</v>
       </c>
-      <c r="C29" s="5">
+      <c r="D29" s="5">
         <v>1826341</v>
       </c>
-      <c r="D29" s="5">
+      <c r="E29" s="5">
         <v>135163</v>
       </c>
-      <c r="E29" s="6">
+      <c r="F29" s="6">
         <v>7.4</v>
       </c>
-      <c r="F29" s="7">
+      <c r="G29" s="7">
         <v>37</v>
       </c>
-      <c r="G29" s="7">
+      <c r="H29" s="7">
         <v>38</v>
       </c>
-      <c r="H29" s="8">
+      <c r="I29" s="8">
         <v>31</v>
       </c>
-      <c r="I29" s="8">
+      <c r="J29" s="8">
         <v>20</v>
       </c>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="5">
         <v>3104614</v>
       </c>
-      <c r="C30" s="5">
+      <c r="D30" s="5">
         <v>2700551</v>
       </c>
-      <c r="D30" s="5">
+      <c r="E30" s="5">
         <v>404063</v>
       </c>
-      <c r="E30" s="6">
+      <c r="F30" s="6">
         <v>15</v>
       </c>
-      <c r="F30" s="7">
+      <c r="G30" s="7">
         <v>32</v>
       </c>
-      <c r="G30" s="7">
+      <c r="H30" s="7">
         <v>35</v>
       </c>
-      <c r="H30" s="8">
+      <c r="I30" s="8">
         <v>17</v>
       </c>
-      <c r="I30" s="8">
+      <c r="J30" s="8">
         <v>5</v>
       </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="5">
         <v>1377529</v>
       </c>
-      <c r="C31" s="5">
+      <c r="D31" s="5">
         <v>1316470</v>
       </c>
-      <c r="D31" s="5">
+      <c r="E31" s="5">
         <v>61059</v>
       </c>
-      <c r="E31" s="6">
+      <c r="F31" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F31" s="7">
+      <c r="G31" s="7">
         <v>41</v>
       </c>
-      <c r="G31" s="7">
+      <c r="H31" s="7">
         <v>42</v>
       </c>
-      <c r="H31" s="8">
+      <c r="I31" s="8">
         <v>40</v>
       </c>
-      <c r="I31" s="8">
+      <c r="J31" s="8">
         <v>30</v>
       </c>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="5">
         <v>9288994</v>
       </c>
-      <c r="C32" s="5">
+      <c r="D32" s="5">
         <v>8791894</v>
       </c>
-      <c r="D32" s="5">
+      <c r="E32" s="5">
         <v>497100</v>
       </c>
-      <c r="E32" s="6">
+      <c r="F32" s="6">
         <v>5.7</v>
-      </c>
-      <c r="F32" s="7">
-        <v>11</v>
       </c>
       <c r="G32" s="7">
         <v>11</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="7">
+        <v>11</v>
+      </c>
+      <c r="I32" s="8">
         <v>13</v>
       </c>
-      <c r="I32" s="8">
+      <c r="J32" s="8">
         <v>25</v>
       </c>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="5">
         <v>2117522</v>
       </c>
-      <c r="C33" s="5">
+      <c r="D33" s="5">
         <v>2059179</v>
       </c>
-      <c r="D33" s="5">
+      <c r="E33" s="5">
         <v>58343</v>
       </c>
-      <c r="E33" s="6">
+      <c r="F33" s="6">
         <v>2.8</v>
-      </c>
-      <c r="F33" s="7">
-        <v>36</v>
       </c>
       <c r="G33" s="7">
         <v>36</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="7">
+        <v>36</v>
+      </c>
+      <c r="I33" s="8">
         <v>41</v>
       </c>
-      <c r="I33" s="8">
+      <c r="J33" s="8">
         <v>38</v>
       </c>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="5">
         <v>20201249</v>
       </c>
-      <c r="C34" s="5">
+      <c r="D34" s="5">
         <v>19378102</v>
       </c>
-      <c r="D34" s="5">
+      <c r="E34" s="5">
         <v>823147</v>
       </c>
-      <c r="E34" s="6">
+      <c r="F34" s="6">
         <v>4.2</v>
       </c>
-      <c r="F34" s="7">
+      <c r="G34" s="7">
         <v>4</v>
       </c>
-      <c r="G34" s="7">
+      <c r="H34" s="7">
         <v>3</v>
       </c>
-      <c r="H34" s="8">
+      <c r="I34" s="8">
         <v>7</v>
       </c>
-      <c r="I34" s="8">
+      <c r="J34" s="8">
         <v>32</v>
       </c>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="5">
         <v>10439388</v>
       </c>
-      <c r="C35" s="5">
+      <c r="D35" s="5">
         <v>9535483</v>
       </c>
-      <c r="D35" s="5">
+      <c r="E35" s="5">
         <v>903905</v>
       </c>
-      <c r="E35" s="6">
+      <c r="F35" s="6">
         <v>9.5</v>
       </c>
-      <c r="F35" s="7">
+      <c r="G35" s="7">
         <v>9</v>
       </c>
-      <c r="G35" s="7">
+      <c r="H35" s="7">
         <v>10</v>
       </c>
-      <c r="H35" s="8">
+      <c r="I35" s="8">
         <v>6</v>
       </c>
-      <c r="I35" s="8">
+      <c r="J35" s="8">
         <v>15</v>
       </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="5">
         <v>779094</v>
       </c>
-      <c r="C36" s="5">
+      <c r="D36" s="5">
         <v>672591</v>
       </c>
-      <c r="D36" s="5">
+      <c r="E36" s="5">
         <v>106503</v>
       </c>
-      <c r="E36" s="6">
+      <c r="F36" s="6">
         <v>15.8</v>
       </c>
-      <c r="F36" s="7">
+      <c r="G36" s="7">
         <v>47</v>
       </c>
-      <c r="G36" s="7">
+      <c r="H36" s="7">
         <v>48</v>
       </c>
-      <c r="H36" s="8">
+      <c r="I36" s="8">
         <v>33</v>
       </c>
-      <c r="I36" s="8">
+      <c r="J36" s="8">
         <v>4</v>
       </c>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="5">
         <v>11799448</v>
       </c>
-      <c r="C37" s="5">
+      <c r="D37" s="5">
         <v>11536504</v>
       </c>
-      <c r="D37" s="5">
+      <c r="E37" s="5">
         <v>262944</v>
       </c>
-      <c r="E37" s="6">
+      <c r="F37" s="6">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="F37" s="7">
-        <v>7</v>
       </c>
       <c r="G37" s="7">
         <v>7</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="7">
+        <v>7</v>
+      </c>
+      <c r="I37" s="8">
         <v>23</v>
       </c>
-      <c r="I37" s="8">
+      <c r="J37" s="8">
         <v>45</v>
       </c>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="5">
         <v>3959353</v>
       </c>
-      <c r="C38" s="5">
+      <c r="D38" s="5">
         <v>3751351</v>
       </c>
-      <c r="D38" s="5">
+      <c r="E38" s="5">
         <v>208002</v>
       </c>
-      <c r="E38" s="6">
+      <c r="F38" s="6">
         <v>5.5</v>
-      </c>
-      <c r="F38" s="7">
-        <v>28</v>
       </c>
       <c r="G38" s="7">
         <v>28</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="7">
+        <v>28</v>
+      </c>
+      <c r="I38" s="8">
         <v>25</v>
       </c>
-      <c r="I38" s="8">
+      <c r="J38" s="8">
         <v>26</v>
       </c>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="5">
         <v>4237256</v>
       </c>
-      <c r="C39" s="5">
+      <c r="D39" s="5">
         <v>3831074</v>
       </c>
-      <c r="D39" s="5">
+      <c r="E39" s="5">
         <v>406182</v>
       </c>
-      <c r="E39" s="6">
+      <c r="F39" s="6">
         <v>10.6</v>
-      </c>
-      <c r="F39" s="7">
-        <v>27</v>
       </c>
       <c r="G39" s="7">
         <v>27</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="7">
+        <v>27</v>
+      </c>
+      <c r="I39" s="8">
         <v>16</v>
       </c>
-      <c r="I39" s="8">
+      <c r="J39" s="8">
         <v>11</v>
       </c>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="5">
         <v>13002700</v>
       </c>
-      <c r="C40" s="5">
+      <c r="D40" s="5">
         <v>12702379</v>
       </c>
-      <c r="D40" s="5">
+      <c r="E40" s="5">
         <v>300321</v>
       </c>
-      <c r="E40" s="6">
+      <c r="F40" s="6">
         <v>2.4</v>
       </c>
-      <c r="F40" s="7">
+      <c r="G40" s="7">
         <v>5</v>
       </c>
-      <c r="G40" s="7">
+      <c r="H40" s="7">
         <v>6</v>
       </c>
-      <c r="H40" s="8">
+      <c r="I40" s="8">
         <v>21</v>
       </c>
-      <c r="I40" s="8">
+      <c r="J40" s="8">
         <v>43</v>
       </c>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="5">
         <v>1097379</v>
       </c>
-      <c r="C41" s="5">
+      <c r="D41" s="5">
         <v>1052567</v>
       </c>
-      <c r="D41" s="5">
+      <c r="E41" s="5">
         <v>44812</v>
       </c>
-      <c r="E41" s="6">
+      <c r="F41" s="6">
         <v>4.3</v>
-      </c>
-      <c r="F41" s="7">
-        <v>43</v>
       </c>
       <c r="G41" s="7">
         <v>43</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="7">
+        <v>43</v>
+      </c>
+      <c r="I41" s="8">
         <v>42</v>
       </c>
-      <c r="I41" s="8">
+      <c r="J41" s="8">
         <v>31</v>
       </c>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="5">
         <v>5118425</v>
       </c>
-      <c r="C42" s="5">
+      <c r="D42" s="5">
         <v>4625364</v>
       </c>
-      <c r="D42" s="5">
+      <c r="E42" s="5">
         <v>493061</v>
       </c>
-      <c r="E42" s="6">
+      <c r="F42" s="6">
         <v>10.7</v>
       </c>
-      <c r="F42" s="7">
+      <c r="G42" s="7">
         <v>23</v>
       </c>
-      <c r="G42" s="7">
+      <c r="H42" s="7">
         <v>24</v>
       </c>
-      <c r="H42" s="8">
+      <c r="I42" s="8">
         <v>14</v>
       </c>
-      <c r="I42" s="8">
+      <c r="J42" s="8">
         <v>10</v>
       </c>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="5">
         <v>886667</v>
       </c>
-      <c r="C43" s="5">
+      <c r="D43" s="5">
         <v>814180</v>
       </c>
-      <c r="D43" s="5">
+      <c r="E43" s="5">
         <v>72487</v>
       </c>
-      <c r="E43" s="6">
+      <c r="F43" s="6">
         <v>8.9</v>
-      </c>
-      <c r="F43" s="7">
-        <v>46</v>
       </c>
       <c r="G43" s="7">
         <v>46</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="7">
+        <v>46</v>
+      </c>
+      <c r="I43" s="8">
         <v>39</v>
       </c>
-      <c r="I43" s="8">
+      <c r="J43" s="8">
         <v>16</v>
       </c>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="5">
         <v>6910840</v>
       </c>
-      <c r="C44" s="5">
+      <c r="D44" s="5">
         <v>6346105</v>
       </c>
-      <c r="D44" s="5">
+      <c r="E44" s="5">
         <v>564735</v>
       </c>
-      <c r="E44" s="6">
+      <c r="F44" s="6">
         <v>8.9</v>
       </c>
-      <c r="F44" s="7">
+      <c r="G44" s="7">
         <v>16</v>
       </c>
-      <c r="G44" s="7">
+      <c r="H44" s="7">
         <v>17</v>
       </c>
-      <c r="H44" s="8">
+      <c r="I44" s="8">
         <v>11</v>
       </c>
-      <c r="I44" s="8">
+      <c r="J44" s="8">
         <v>17</v>
       </c>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="5">
         <v>29145505</v>
       </c>
-      <c r="C45" s="5">
+      <c r="D45" s="5">
         <v>25145561</v>
       </c>
-      <c r="D45" s="5">
+      <c r="E45" s="5">
         <v>3999944</v>
       </c>
-      <c r="E45" s="6">
+      <c r="F45" s="6">
         <v>15.9</v>
-      </c>
-      <c r="F45" s="7">
-        <v>2</v>
       </c>
       <c r="G45" s="7">
         <v>2</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="7">
+        <v>2</v>
+      </c>
+      <c r="I45" s="8">
         <v>1</v>
       </c>
-      <c r="I45" s="8">
+      <c r="J45" s="8">
         <v>3</v>
       </c>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="5">
         <v>3271616</v>
       </c>
-      <c r="C46" s="5">
+      <c r="D46" s="5">
         <v>2763885</v>
       </c>
-      <c r="D46" s="5">
+      <c r="E46" s="5">
         <v>507731</v>
       </c>
-      <c r="E46" s="6">
+      <c r="F46" s="6">
         <v>18.399999999999999</v>
       </c>
-      <c r="F46" s="7">
+      <c r="G46" s="7">
         <v>30</v>
       </c>
-      <c r="G46" s="7">
+      <c r="H46" s="7">
         <v>34</v>
       </c>
-      <c r="H46" s="8">
+      <c r="I46" s="8">
         <v>12</v>
       </c>
-      <c r="I46" s="8">
+      <c r="J46" s="8">
         <v>1</v>
       </c>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="5">
         <v>643077</v>
       </c>
-      <c r="C47" s="5">
+      <c r="D47" s="5">
         <v>625741</v>
       </c>
-      <c r="D47" s="5">
+      <c r="E47" s="5">
         <v>17336</v>
       </c>
-      <c r="E47" s="6">
+      <c r="F47" s="6">
         <v>2.8</v>
-      </c>
-      <c r="F47" s="7">
-        <v>49</v>
       </c>
       <c r="G47" s="7">
         <v>49</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="7">
+        <v>49</v>
+      </c>
+      <c r="I47" s="8">
         <v>46</v>
       </c>
-      <c r="I47" s="8">
+      <c r="J47" s="8">
         <v>40</v>
       </c>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="5">
         <v>8631393</v>
       </c>
-      <c r="C48" s="5">
+      <c r="D48" s="5">
         <v>8001024</v>
       </c>
-      <c r="D48" s="5">
+      <c r="E48" s="5">
         <v>630369</v>
       </c>
-      <c r="E48" s="6">
+      <c r="F48" s="6">
         <v>7.9</v>
-      </c>
-      <c r="F48" s="7">
-        <v>12</v>
       </c>
       <c r="G48" s="7">
         <v>12</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="7">
+        <v>12</v>
+      </c>
+      <c r="I48" s="8">
         <v>10</v>
       </c>
-      <c r="I48" s="8">
+      <c r="J48" s="8">
         <v>18</v>
       </c>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="5">
         <v>7705281</v>
       </c>
-      <c r="C49" s="5">
+      <c r="D49" s="5">
         <v>6724540</v>
       </c>
-      <c r="D49" s="5">
+      <c r="E49" s="5">
         <v>980741</v>
       </c>
-      <c r="E49" s="6">
+      <c r="F49" s="6">
         <v>14.6</v>
-      </c>
-      <c r="F49" s="7">
-        <v>13</v>
       </c>
       <c r="G49" s="7">
         <v>13</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="7">
+        <v>13</v>
+      </c>
+      <c r="I49" s="8">
         <v>5</v>
       </c>
-      <c r="I49" s="8">
+      <c r="J49" s="8">
         <v>7</v>
       </c>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="5">
         <v>1793716</v>
       </c>
-      <c r="C50" s="5">
+      <c r="D50" s="5">
         <v>1852994</v>
       </c>
-      <c r="D50" s="5">
+      <c r="E50" s="5">
         <v>-59278</v>
       </c>
-      <c r="E50" s="6">
+      <c r="F50" s="6">
         <v>-3.2</v>
       </c>
-      <c r="F50" s="7">
+      <c r="G50" s="7">
         <v>39</v>
       </c>
-      <c r="G50" s="7">
+      <c r="H50" s="7">
         <v>37</v>
-      </c>
-      <c r="H50" s="8">
-        <v>50</v>
       </c>
       <c r="I50" s="8">
         <v>50</v>
       </c>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J50" s="8">
+        <v>50</v>
+      </c>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="5">
         <v>5893718</v>
       </c>
-      <c r="C51" s="5">
+      <c r="D51" s="5">
         <v>5686986</v>
       </c>
-      <c r="D51" s="5">
+      <c r="E51" s="5">
         <v>206732</v>
       </c>
-      <c r="E51" s="6">
+      <c r="F51" s="6">
         <v>3.6</v>
-      </c>
-      <c r="F51" s="7">
-        <v>20</v>
       </c>
       <c r="G51" s="7">
         <v>20</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="7">
+        <v>20</v>
+      </c>
+      <c r="I51" s="8">
         <v>26</v>
       </c>
-      <c r="I51" s="8">
+      <c r="J51" s="8">
         <v>34</v>
       </c>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="5">
         <v>576851</v>
       </c>
-      <c r="C52" s="5">
+      <c r="D52" s="5">
         <v>563626</v>
       </c>
-      <c r="D52" s="5">
+      <c r="E52" s="5">
         <v>13225</v>
       </c>
-      <c r="E52" s="6">
+      <c r="F52" s="6">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="F52" s="7">
-        <v>50</v>
       </c>
       <c r="G52" s="7">
         <v>50</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="7">
+        <v>50</v>
+      </c>
+      <c r="I52" s="8">
         <v>47</v>
       </c>
-      <c r="I52" s="8">
+      <c r="J52" s="8">
         <v>44</v>
       </c>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2184,6 +2358,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0" footer="0.5"/>
